--- a/TCSiON_PROJECT/target/classes/TestDataStage4.xlsx
+++ b/TCSiON_PROJECT/target/classes/TestDataStage4.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12720" windowHeight="3120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12720" windowHeight="5175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>TestCase</t>
   </si>
@@ -37,46 +38,7 @@
     <t>TC_005</t>
   </si>
   <si>
-    <t>UPDATE ADDRESS</t>
-  </si>
-  <si>
-    <t>TC_011</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
     <t>Email ID</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>House number 5, LNCPE ROAD</t>
-  </si>
-  <si>
-    <t>Kazhakootam</t>
-  </si>
-  <si>
-    <t>Postal code</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Trivandrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country </t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Kerala</t>
   </si>
   <si>
     <t xml:space="preserve"> Update Booking Status</t>
@@ -461,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -491,10 +453,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -502,10 +464,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -513,10 +475,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -529,10 +491,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -540,68 +502,20 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>695584</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
